--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="20760"/>
+    <workbookView windowHeight="20760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
     <sheet name="eb2017" sheetId="3" r:id="rId3"/>
     <sheet name="eb2018" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1199,7 +1212,7 @@
   <sheetPr/>
   <dimension ref="A2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1265,8 +1278,8 @@
   <sheetPr/>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1354,10 +1367,10 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>50000</v>
+        <v>50000.2</v>
       </c>
       <c r="D16">
-        <v>37598</v>
+        <v>37598.3</v>
       </c>
     </row>
   </sheetData>
